--- a/data/trans_dic/P17_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6790582861732933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7886219576695505</v>
+        <v>0.7886219576695506</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7209836262101209</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.483705395234619</v>
+        <v>0.4925786137220009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6174550987349546</v>
+        <v>0.6214930836422524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.619756917788655</v>
+        <v>0.6194046324053702</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7372510716243594</v>
+        <v>0.7407682258444097</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6599911612148659</v>
+        <v>0.6593077513977953</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7366750068775907</v>
+        <v>0.727607953470916</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6993102738485707</v>
+        <v>0.6934371132684345</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8099953201583253</v>
+        <v>0.8081426264414178</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5862375915987387</v>
+        <v>0.5926383145636001</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6906124542543811</v>
+        <v>0.6938879656850298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.675153937682623</v>
+        <v>0.6767357905311745</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7883325574152719</v>
+        <v>0.790590479300616</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6104104615831046</v>
+        <v>0.6136271231009803</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7353382082628405</v>
+        <v>0.7300130386335317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7349964693157512</v>
+        <v>0.7292587335596898</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8306598335387883</v>
+        <v>0.8321730299381614</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.777397475065816</v>
+        <v>0.7768492246662014</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.838762720363695</v>
+        <v>0.8352511123614634</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7999472682565049</v>
+        <v>0.8006676011173632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8855999968518602</v>
+        <v>0.8846856755132622</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.678081481085135</v>
+        <v>0.6753190883743247</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7663371468747986</v>
+        <v>0.7680376204964794</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.756501546551153</v>
+        <v>0.7507031926497783</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8495660744512298</v>
+        <v>0.8499701181257365</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5985740070097053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5654743506918525</v>
+        <v>0.5654743506918523</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7304677190214932</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5234651904662422</v>
+        <v>0.5244873711240822</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6783501237999109</v>
+        <v>0.6765427514392497</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5544439931138153</v>
+        <v>0.5493713809812421</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5072292598868504</v>
+        <v>0.5085884985451005</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6894167702474955</v>
+        <v>0.6915192774141835</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.766524852691538</v>
+        <v>0.7692805604786404</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6338267274171596</v>
+        <v>0.6353679432374029</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6884373834640993</v>
+        <v>0.6924548630289915</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6210296762817704</v>
+        <v>0.6207468611310654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7349789942185151</v>
+        <v>0.7389588771442914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6093424092650843</v>
+        <v>0.6085519149615746</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6133687339815906</v>
+        <v>0.6156106393680997</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6140244599666494</v>
+        <v>0.6129314915920621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.763559242224459</v>
+        <v>0.758732163068629</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6419831998641711</v>
+        <v>0.6415711567531318</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6242334952100274</v>
+        <v>0.6177874860298231</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7680063980985786</v>
+        <v>0.7673351932587967</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.844578471042623</v>
+        <v>0.8418073761318661</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7158929523565462</v>
+        <v>0.7155104023175509</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7623739958655146</v>
+        <v>0.7640495823111154</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6824637619980773</v>
+        <v>0.6837302498795049</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7899096534373703</v>
+        <v>0.7899215482844471</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6683416809239854</v>
+        <v>0.6672661823186875</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6810273310678292</v>
+        <v>0.6850126912430752</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.8143954273867051</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8017656600863016</v>
+        <v>0.8017656600863015</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.619399963091407</v>
+        <v>0.6231509532689613</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.744058360684644</v>
+        <v>0.7367387936098205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7258189052167131</v>
+        <v>0.727541493760546</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6954445865272469</v>
+        <v>0.6974555255039865</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7871624850447932</v>
+        <v>0.7837664906131818</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8911497935790359</v>
+        <v>0.8910992018754371</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8071581565955218</v>
+        <v>0.8103485745851406</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.811241313589415</v>
+        <v>0.8124867241192922</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7163796429758915</v>
+        <v>0.7162524016970524</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8297531458193373</v>
+        <v>0.8297284741455254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7817738945681453</v>
+        <v>0.7797676622757044</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7709799869943383</v>
+        <v>0.7697537515466415</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7200674002112356</v>
+        <v>0.7280509547282393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8400328164258184</v>
+        <v>0.8355518219446021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.81899795068334</v>
+        <v>0.8199762428134852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7927911317941263</v>
+        <v>0.799209458455639</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8665150816787823</v>
+        <v>0.8648855008708995</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9506767878708773</v>
+        <v>0.9487304764875129</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8883800057333149</v>
+        <v>0.8865666478984855</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8793345030460912</v>
+        <v>0.877853494996687</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7862328359718237</v>
+        <v>0.7849139061910385</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8852761344373484</v>
+        <v>0.8868312583649725</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8434459676606127</v>
+        <v>0.8420705950738495</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8271464550426408</v>
+        <v>0.8283892262713859</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8490151700772187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6845430066327881</v>
+        <v>0.684543006632788</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7726908252013024</v>
@@ -1093,7 +1093,7 @@
         <v>0.872908001794967</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7651347387002329</v>
+        <v>0.7651347387002331</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.6875397085380602</v>
@@ -1105,7 +1105,7 @@
         <v>0.8612212158680863</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.727312868247559</v>
+        <v>0.7273128682475589</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5475334895213122</v>
+        <v>0.5477556316541087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6360723412791658</v>
+        <v>0.6409068583109192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8089774038748339</v>
+        <v>0.8063849499426543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6172604745894853</v>
+        <v>0.6188601174492474</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7287884451210581</v>
+        <v>0.7266544813069589</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.799857784544088</v>
+        <v>0.8011575102242542</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8369872687308204</v>
+        <v>0.837028215008003</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7176018476572343</v>
+        <v>0.7178587249538834</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6538672833403685</v>
+        <v>0.6563251496195958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7356482088735067</v>
+        <v>0.7333897774145886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8345716590604453</v>
+        <v>0.8359134795464747</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6892242033947977</v>
+        <v>0.687179797172944</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.650412993706183</v>
+        <v>0.6544380481530468</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.73547563484576</v>
+        <v>0.7354585692539094</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8855266795293028</v>
+        <v>0.8834553885443365</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.746463324047962</v>
+        <v>0.7421145943280293</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8111396513156086</v>
+        <v>0.8111432630094441</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8773228371420796</v>
+        <v>0.8775305322016849</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9064514347879222</v>
+        <v>0.9046300821717351</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8066041388584796</v>
+        <v>0.8086136310655699</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7197010225342684</v>
+        <v>0.7193535192313907</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7969102087514975</v>
+        <v>0.7964696484853728</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8868713298596953</v>
+        <v>0.8864073701314665</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7656319739386203</v>
+        <v>0.7668742324432158</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9057673538483092</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4083936054122051</v>
+        <v>0.408393605412205</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7418740565165439</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6137933367436748</v>
+        <v>0.6127910999056415</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6905218628682179</v>
+        <v>0.6875373312410828</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7116928317476494</v>
+        <v>0.7126310055348182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2968063708797056</v>
+        <v>0.2915011223335997</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.73885065653722</v>
+        <v>0.7370834671109016</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8244367825619984</v>
+        <v>0.8258367717516329</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8584425099132508</v>
+        <v>0.8607173420547772</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3600515919996073</v>
+        <v>0.3645531944850697</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6935766955026408</v>
+        <v>0.697323172910314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7777363354283848</v>
+        <v>0.7759083929431688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8041958024799066</v>
+        <v>0.8045948824793584</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.340998670575304</v>
+        <v>0.3445964505996955</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7499295261584201</v>
+        <v>0.7456290957367829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8124645057577987</v>
+        <v>0.8090407099808075</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8273951136504144</v>
+        <v>0.825335770271451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4108393194658037</v>
+        <v>0.407699361272678</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8512784178470422</v>
+        <v>0.8485009360672709</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9143773504127868</v>
+        <v>0.9140507702149108</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9394810648031098</v>
+        <v>0.9408248428139677</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4568338445916663</v>
+        <v>0.4557964067188316</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7830095094421701</v>
+        <v>0.7831165364414803</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8546446856311449</v>
+        <v>0.8507353700041412</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8765419015225545</v>
+        <v>0.8743492834495887</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4150460603625263</v>
+        <v>0.4187198498699569</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.8630574294648758</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.8617749173640646</v>
+        <v>0.8617749173640642</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7201006072437169</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5609299033255345</v>
+        <v>0.5621434981999445</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7097327240961869</v>
+        <v>0.708773191343244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7766741461252324</v>
+        <v>0.7725512464401522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7214794820568637</v>
+        <v>0.7164482617111846</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7760715446912797</v>
+        <v>0.7679119524327833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8375338714443864</v>
+        <v>0.841790861994858</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8214129995862176</v>
+        <v>0.8190766327932268</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8206305265128021</v>
+        <v>0.8207278676457188</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6765970608220097</v>
+        <v>0.6832865515551695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.794978992020959</v>
+        <v>0.7943244380367999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8110084782165476</v>
+        <v>0.8092744288868745</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.782271644647772</v>
+        <v>0.7806981680263786</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6819338001447159</v>
+        <v>0.6828886229711365</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8167423410835533</v>
+        <v>0.8218380409387687</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8691147442693744</v>
+        <v>0.8714544918367046</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8196352451088313</v>
+        <v>0.8160359032538602</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.861367945509198</v>
+        <v>0.8584870231890593</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9174681729573567</v>
+        <v>0.9213369857746447</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9010411708737704</v>
+        <v>0.9022519461796988</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8980996373679072</v>
+        <v>0.8971729515734558</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7580153174295252</v>
+        <v>0.7570117376308476</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8598854720703766</v>
+        <v>0.8599261145852068</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8756152428346353</v>
+        <v>0.8720348015239623</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.8425005896494563</v>
+        <v>0.8459011662256878</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.7059268885865814</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6875233289035656</v>
+        <v>0.6875233289035657</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5892835620534455</v>
+        <v>0.5969118128223778</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6908083541839796</v>
+        <v>0.6851357998682294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6092200982197986</v>
+        <v>0.608690505613307</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5888709132343077</v>
+        <v>0.5904983299752526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7338912662404378</v>
+        <v>0.7307399161828969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8112177012150367</v>
+        <v>0.8121878503626146</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7204806149897764</v>
+        <v>0.7238436487420165</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7038386520734357</v>
+        <v>0.7058289160727608</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6749188063582445</v>
+        <v>0.6746939458452708</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7606217574068375</v>
+        <v>0.7641933616945042</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6794321062812443</v>
+        <v>0.680257636520875</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6629985429252241</v>
+        <v>0.6633545745672006</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6717032734786631</v>
+        <v>0.6757867040131604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7619180923657485</v>
+        <v>0.7581711137984016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6877027588333051</v>
+        <v>0.6890499978608693</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6746888477189786</v>
+        <v>0.6737780047465501</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7993732326053267</v>
+        <v>0.7990023077318228</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8684365044957834</v>
+        <v>0.8693518419032555</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7892664122947436</v>
+        <v>0.7907191092674869</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7631789343220811</v>
+        <v>0.765475645393724</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7275587099587534</v>
+        <v>0.730207404441013</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8087619362911505</v>
+        <v>0.8080615912404289</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7298799935819602</v>
+        <v>0.7311612705295476</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7159290471016982</v>
+        <v>0.7127095145182003</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.8344754945480917</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7655673536926982</v>
+        <v>0.7655673536926983</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7444719785218126</v>
@@ -1637,7 +1637,7 @@
         <v>0.8866716148413183</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.826867076211569</v>
+        <v>0.8268670762115691</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.6997840237420779</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6213562191657812</v>
+        <v>0.6163286517032486</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6109843564716535</v>
+        <v>0.6155262576131405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8042813887951601</v>
+        <v>0.7997384561514449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7310554648664955</v>
+        <v>0.7277495646394286</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7118367560376888</v>
+        <v>0.7134445171062906</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7033964080714489</v>
+        <v>0.7109895916751444</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8625164991207138</v>
+        <v>0.860886216520664</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8003957129586204</v>
+        <v>0.8016376266464952</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6764236123790288</v>
+        <v>0.6755359941493926</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6710605629558265</v>
+        <v>0.6695000233557485</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8423336655819804</v>
+        <v>0.842977777272699</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7755820206711957</v>
+        <v>0.7740822101815966</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6889869710235582</v>
+        <v>0.6886996687465853</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6827916283362138</v>
+        <v>0.686270785171491</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8596850781695696</v>
+        <v>0.857656367431651</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8005040877090988</v>
+        <v>0.7958249671880536</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7749965603427929</v>
+        <v>0.7763734205228513</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7695105318426728</v>
+        <v>0.7714631423165378</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9072887811247706</v>
+        <v>0.9069513015328187</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8503026895837065</v>
+        <v>0.8533169812818409</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7239045920441676</v>
+        <v>0.7242207795890061</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7180114113308659</v>
+        <v>0.7200500038072459</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8774634244777344</v>
+        <v>0.8776439833647424</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8166579052817133</v>
+        <v>0.8175531743934112</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.742382130370966</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.6770574223006476</v>
+        <v>0.6770574223006478</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.7652925706874355</v>
@@ -1773,7 +1773,7 @@
         <v>0.8143099857757806</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.7683594315325832</v>
+        <v>0.7683594315325835</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.6959294833155656</v>
@@ -1785,7 +1785,7 @@
         <v>0.7791047487428887</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.7239932021773502</v>
+        <v>0.7239932021773501</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6945214692876374</v>
+        <v>0.6943590784963801</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7264844021489205</v>
+        <v>0.7256070227215125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6588406325784772</v>
+        <v>0.6575178581577757</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.8076043635527712</v>
+        <v>0.8070916908929641</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.798619190484875</v>
+        <v>0.8009387156837005</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7550995737333459</v>
+        <v>0.7556038702678599</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.756310306473623</v>
+        <v>0.7564840052047532</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7693312958272205</v>
+        <v>0.7686610544541309</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7133943232493778</v>
+        <v>0.7123693661084728</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7269112551938095</v>
+        <v>0.7256949718838004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7575429209626804</v>
+        <v>0.7565996703382448</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6946638728315823</v>
+        <v>0.6940281275918756</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8356432116062803</v>
+        <v>0.8342635721708344</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.8261502981281649</v>
+        <v>0.8274769917196019</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7799253216194872</v>
+        <v>0.7802798375227298</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7770287606178909</v>
+        <v>0.777234981392992</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.7890082952081113</v>
+        <v>0.7893404346907288</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7348326709550341</v>
+        <v>0.7344924892836033</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>131236</v>
+        <v>133643</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>181987</v>
+        <v>183178</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>181403</v>
+        <v>181300</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>235069</v>
+        <v>236190</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>172151</v>
+        <v>171973</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>211606</v>
+        <v>209002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>200289</v>
+        <v>198607</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>256008</v>
+        <v>255422</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>311968</v>
+        <v>315374</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>401925</v>
+        <v>403831</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>390988</v>
+        <v>391904</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>500517</v>
+        <v>501951</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>165613</v>
+        <v>166486</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>216732</v>
+        <v>215163</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>215134</v>
+        <v>213455</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>264852</v>
+        <v>265334</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>202775</v>
+        <v>202632</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>240930</v>
+        <v>239922</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>229112</v>
+        <v>229318</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>279904</v>
+        <v>279615</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>360842</v>
+        <v>359372</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>445995</v>
+        <v>446985</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>438098</v>
+        <v>434740</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>539395</v>
+        <v>539651</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>258108</v>
+        <v>258612</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>342206</v>
+        <v>341294</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>278022</v>
+        <v>275478</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>268652</v>
+        <v>269372</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>347431</v>
+        <v>348490</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>401479</v>
+        <v>402922</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>329754</v>
+        <v>330556</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>375755</v>
+        <v>377948</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>619181</v>
+        <v>618900</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>755730</v>
+        <v>759822</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>622566</v>
+        <v>621759</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>659652</v>
+        <v>662063</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>302760</v>
+        <v>302221</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>385191</v>
+        <v>382756</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>321918</v>
+        <v>321711</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>330623</v>
+        <v>327209</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>387036</v>
+        <v>386698</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>442361</v>
+        <v>440909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>372450</v>
+        <v>372251</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>416111</v>
+        <v>417025</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>680433</v>
+        <v>681695</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>812211</v>
+        <v>812223</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>682846</v>
+        <v>681747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>732416</v>
+        <v>736702</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>197493</v>
+        <v>198689</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>241109</v>
+        <v>238737</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>231220</v>
+        <v>231769</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>219756</v>
+        <v>220391</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>264024</v>
+        <v>262885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>303900</v>
+        <v>303883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>271455</v>
+        <v>272528</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>289111</v>
+        <v>289555</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>468697</v>
+        <v>468614</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>551841</v>
+        <v>551824</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>511963</v>
+        <v>510650</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>518388</v>
+        <v>517563</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>229591</v>
+        <v>232136</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>272209</v>
+        <v>270757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>260904</v>
+        <v>261216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>250516</v>
+        <v>252545</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>290640</v>
+        <v>290093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>324200</v>
+        <v>323536</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>298770</v>
+        <v>298160</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>313378</v>
+        <v>312850</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>514399</v>
+        <v>513536</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>588767</v>
+        <v>589801</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>552351</v>
+        <v>551450</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>556153</v>
+        <v>556988</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>196384</v>
+        <v>196464</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>237880</v>
+        <v>239688</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>299293</v>
+        <v>298333</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>230328</v>
+        <v>230925</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>270713</v>
+        <v>269920</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>311105</v>
+        <v>311611</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>323414</v>
+        <v>323429</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>302800</v>
+        <v>302908</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>477406</v>
+        <v>479201</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>561250</v>
+        <v>559527</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>631242</v>
+        <v>632257</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>548007</v>
+        <v>546381</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>233284</v>
+        <v>234728</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>275055</v>
+        <v>275048</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>327613</v>
+        <v>326847</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>278539</v>
+        <v>276916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>301303</v>
+        <v>301304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>341236</v>
+        <v>341316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>350255</v>
+        <v>349551</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>340355</v>
+        <v>341203</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>525473</v>
+        <v>525219</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>607989</v>
+        <v>607653</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>670799</v>
+        <v>670448</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>608759</v>
+        <v>609747</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>124287</v>
+        <v>124084</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>146817</v>
+        <v>146183</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>150324</v>
+        <v>150523</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61043</v>
+        <v>59952</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>152746</v>
+        <v>152381</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>181039</v>
+        <v>181346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>186042</v>
+        <v>186535</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>81518</v>
+        <v>82537</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>283829</v>
+        <v>285362</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>336145</v>
+        <v>335355</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>344148</v>
+        <v>344319</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>147335</v>
+        <v>148890</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>151853</v>
+        <v>150982</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>172745</v>
+        <v>172017</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>174763</v>
+        <v>174328</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>84495</v>
+        <v>83849</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>175989</v>
+        <v>175415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>200789</v>
+        <v>200717</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>203604</v>
+        <v>203896</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>103430</v>
+        <v>103195</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>320427</v>
+        <v>320471</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>369385</v>
+        <v>367695</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>375108</v>
+        <v>374170</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>179329</v>
+        <v>180916</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>151351</v>
+        <v>151679</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>194453</v>
+        <v>194190</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>204361</v>
+        <v>203276</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>195310</v>
+        <v>193948</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>215860</v>
+        <v>213590</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>234535</v>
+        <v>235728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>223423</v>
+        <v>222787</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>216441</v>
+        <v>216467</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>370752</v>
+        <v>374418</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>440428</v>
+        <v>440065</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>433988</v>
+        <v>433060</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>418091</v>
+        <v>417250</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>184001</v>
+        <v>184258</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>223772</v>
+        <v>225168</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>228684</v>
+        <v>229300</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>221881</v>
+        <v>220907</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>239584</v>
+        <v>238783</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>256920</v>
+        <v>258003</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>245081</v>
+        <v>245411</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>236874</v>
+        <v>236629</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>415367</v>
+        <v>414817</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>476387</v>
+        <v>476409</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>468560</v>
+        <v>466644</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>450280</v>
+        <v>452098</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>361904</v>
+        <v>366589</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>457859</v>
+        <v>454100</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>395946</v>
+        <v>395602</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>417541</v>
+        <v>418695</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>467668</v>
+        <v>465660</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>562077</v>
+        <v>562750</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>496642</v>
+        <v>498960</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>538224</v>
+        <v>539746</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>844584</v>
+        <v>844303</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1031151</v>
+        <v>1035993</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>909925</v>
+        <v>911030</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>977094</v>
+        <v>977619</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>412521</v>
+        <v>415029</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>504990</v>
+        <v>502507</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>446954</v>
+        <v>447829</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>478390</v>
+        <v>477744</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>509396</v>
+        <v>509159</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>601723</v>
+        <v>602357</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>544057</v>
+        <v>545058</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>583601</v>
+        <v>585358</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>910457</v>
+        <v>913771</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1096413</v>
+        <v>1095464</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>977487</v>
+        <v>979203</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1055100</v>
+        <v>1050356</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>459040</v>
+        <v>455326</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>475381</v>
+        <v>478915</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>626200</v>
+        <v>622663</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>583435</v>
+        <v>580797</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>557732</v>
+        <v>558992</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>577942</v>
+        <v>584181</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>710738</v>
+        <v>709394</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>664324</v>
+        <v>665354</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1029707</v>
+        <v>1028356</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1073497</v>
+        <v>1071001</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1349933</v>
+        <v>1350965</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1262699</v>
+        <v>1260257</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>509004</v>
+        <v>508791</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>531251</v>
+        <v>533958</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>669336</v>
+        <v>667757</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>638860</v>
+        <v>635126</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>607218</v>
+        <v>608297</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>632264</v>
+        <v>633869</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>747631</v>
+        <v>747353</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>705746</v>
+        <v>708248</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1101987</v>
+        <v>1102468</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1148604</v>
+        <v>1151865</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1406233</v>
+        <v>1406522</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1329573</v>
+        <v>1331031</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2378512</v>
+        <v>2377956</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2459530</v>
+        <v>2456560</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2319862</v>
+        <v>2315205</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2871138</v>
+        <v>2869315</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2820278</v>
+        <v>2828469</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2812791</v>
+        <v>2814670</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5278900</v>
+        <v>5280112</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5321439</v>
+        <v>5316803</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>5169389</v>
+        <v>5161962</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2489437</v>
+        <v>2485272</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2564680</v>
+        <v>2561486</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2446000</v>
+        <v>2443762</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2970819</v>
+        <v>2965915</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2917503</v>
+        <v>2922188</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2905269</v>
+        <v>2906589</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5423511</v>
+        <v>5424950</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5457544</v>
+        <v>5459842</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>5324736</v>
+        <v>5322271</v>
       </c>
     </row>
     <row r="40">
